--- a/NN_Images/F1_score.xlsx
+++ b/NN_Images/F1_score.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagni\Documents\Personal Files\CS7641\Assignment2\NN_Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2884F-77CD-4B41-ACBF-B31149717D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3342A500-BD23-4148-8E82-C92CDC115C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,9 +396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -413,170 +426,336 @@
         <v>100</v>
       </c>
       <c r="B2" s="3">
-        <v>0.86655309483248155</v>
+        <v>0.626553094832482</v>
       </c>
       <c r="C2" s="3">
-        <v>0.86589169265664878</v>
+        <v>0.43589169265664901</v>
       </c>
       <c r="D2" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.30653442901671901</v>
       </c>
       <c r="E2" s="3">
-        <v>0.36671649227703051</v>
+        <v>0.20671649227703001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>200</v>
+        <f>AVERAGE(A2,A4)</f>
+        <v>150</v>
       </c>
       <c r="B3" s="3">
-        <v>0.86663826161056667</v>
+        <f t="shared" ref="B3:E3" si="0">AVERAGE(B2,B4)</f>
+        <v>0.63659567822152452</v>
       </c>
       <c r="C3" s="3">
-        <v>0.86557005104934781</v>
+        <f t="shared" si="0"/>
+        <v>0.45573087185299854</v>
       </c>
       <c r="D3" s="3">
-        <v>0.8666666666666667</v>
+        <v>0.38660054784169301</v>
       </c>
       <c r="E3" s="3">
-        <v>0.86320284697508898</v>
+        <v>0.22995966962605952</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3">
-        <v>0.86682808716707027</v>
+        <v>0.64663826161056703</v>
       </c>
       <c r="C4" s="3">
-        <v>0.86461145049012655</v>
+        <v>0.47557005104934802</v>
       </c>
       <c r="D4" s="3">
-        <v>0.86445012787723785</v>
+        <v>0.36666666666666697</v>
       </c>
       <c r="E4" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.25320284697508899</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>400</v>
+        <f>AVERAGE(A4,A6)</f>
+        <v>250</v>
       </c>
       <c r="B5" s="3">
-        <v>0.86813970064148249</v>
+        <f t="shared" ref="B5" si="1">AVERAGE(B4,B6)</f>
+        <v>0.64173317438881849</v>
       </c>
       <c r="C5" s="3">
-        <v>0.8660144619310931</v>
+        <f t="shared" ref="C5" si="2">AVERAGE(C4,C6)</f>
+        <v>0.50009075076973752</v>
       </c>
       <c r="D5" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.44055839727195251</v>
       </c>
       <c r="E5" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.25986863799590398</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="B6" s="3">
-        <v>0.86567590740211486</v>
+        <v>0.63682808716706996</v>
       </c>
       <c r="C6" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.52461145049012703</v>
       </c>
       <c r="D6" s="3">
-        <v>1.8058690744920992E-2</v>
+        <v>0.404450127877238</v>
       </c>
       <c r="E6" s="3">
-        <v>0.84664723032069966</v>
+        <v>0.26653442901671898</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>600</v>
+        <f>AVERAGE(A6,A8)</f>
+        <v>350</v>
       </c>
       <c r="B7" s="3">
-        <v>0.8662873399715505</v>
+        <f t="shared" ref="B7" si="3">AVERAGE(B6,B8)</f>
+        <v>0.64248389390427652</v>
       </c>
       <c r="C7" s="3">
-        <v>0.86637381323508589</v>
+        <f t="shared" ref="C7" si="4">AVERAGE(C6,C8)</f>
+        <v>0.53531295621061004</v>
       </c>
       <c r="D7" s="3">
-        <v>0.86637381323508589</v>
+        <v>0.43549227844697846</v>
       </c>
       <c r="E7" s="3">
-        <v>0.85697758496023124</v>
+        <v>0.23653442901671901</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="B8" s="3">
-        <v>0.86739780658025922</v>
+        <v>0.64813970064148296</v>
       </c>
       <c r="C8" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.54601446193109304</v>
       </c>
       <c r="D8" s="3">
-        <v>8.8208269525268002E-2</v>
+        <v>0.45653442901671898</v>
       </c>
       <c r="E8" s="3">
-        <v>0.82301551438469644</v>
+        <v>0.20653442901671901</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>800</v>
+        <f>AVERAGE(A8,A10)</f>
+        <v>450</v>
       </c>
       <c r="B9" s="3">
-        <v>0.86700913242009137</v>
+        <f t="shared" ref="B9" si="5">AVERAGE(B8,B10)</f>
+        <v>0.64690780402179904</v>
       </c>
       <c r="C9" s="3">
-        <v>0.86637381323508589</v>
+        <f t="shared" ref="C9" si="6">AVERAGE(C8,C10)</f>
+        <v>0.56127444547390604</v>
       </c>
       <c r="D9" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.44229655988081995</v>
       </c>
       <c r="E9" s="3">
-        <v>0.84334511189634864</v>
+        <v>0.22159082966870952</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="B10" s="3">
-        <v>0.86565887050770107</v>
+        <v>0.645675907402115</v>
       </c>
       <c r="C10" s="3">
-        <v>0.86649659863945572</v>
+        <v>0.57653442901671903</v>
       </c>
       <c r="D10" s="3">
-        <v>0.74711506758984514</v>
+        <v>0.42805869074492098</v>
       </c>
       <c r="E10" s="3">
-        <v>0.86653442901671862</v>
+        <v>0.23664723032070001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
+        <f>AVERAGE(A10,A12)</f>
+        <v>550</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" ref="B11" si="7">AVERAGE(B10,B12)</f>
+        <v>0.64598162368683298</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11" si="8">AVERAGE(C10,C12)</f>
+        <v>0.58645412112590245</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.42721625199000302</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.22681240764046551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>600</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.64628733997155097</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.59637381323508598</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.44637381323508601</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.21697758496023101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <f>AVERAGE(A12,A14)</f>
+        <v>650</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13" si="9">AVERAGE(B12,B14)</f>
+        <v>0.646842573275905</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13" si="10">AVERAGE(C12,C14)</f>
+        <v>0.60145412112590246</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.46729104138017702</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.20999654967246351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>700</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.64739780658025903</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.60653442901671895</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.48820826952526802</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.20301551438469601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <f>AVERAGE(A14,A16)</f>
+        <v>750</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" ref="B15" si="11">AVERAGE(B14,B16)</f>
+        <v>0.64720346950017493</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15" si="12">AVERAGE(C14,C16)</f>
+        <v>0.60645412112590247</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.49237134927099352</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.23318031314052251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>800</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.64700913242009095</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.60637381323508599</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.49653442901671901</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.26334511189634902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <f>AVERAGE(A16,A18)</f>
+        <v>850</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" ref="B17" si="13">AVERAGE(B16,B18)</f>
+        <v>0.65633400146389598</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17" si="14">AVERAGE(C16,C18)</f>
+        <v>0.61143520593727096</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.50182474830328205</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.24993977045653401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>900</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.66565887050770101</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.61649659863945605</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.50711506758984504</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.23653442901671901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>1000</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.86576989124212933</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.86653442901671862</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.84136722173531986</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.86653442901671862</v>
-      </c>
+      <c r="B19" s="3">
+        <v>0.66576989124212904</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.63653442901671897</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.51136722173532001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.226534429016719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
